--- a/data/trans_dic/P19C06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P19C06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -661,57 +661,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,72%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,12%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>0,0; 6,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>0,0; 4,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0,0; 1,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>0,0; 3,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0,0; 0,59</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,76%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>0,0; 1,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,1; 1,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,21; 2,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,74; 3,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,44; 2,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,53; 2,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,26; 1,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,48; 1,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,46; 2,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,39; 1,35</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,18%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,74; 2,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,77; 2,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,51; 2,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,48; 2,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,65; 2,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,69; 2,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,25; 1,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>0,68; 2,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>0,84; 2,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,86; 2,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,5; 1,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,74; 1,89</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,94%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,34; 1,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,31; 2,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,77; 3,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,26; 1,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,7; 2,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,87; 2,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,33; 1,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,57; 2,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,64; 1,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,74; 2,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,78; 2,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0,57; 1,45</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,02%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,62; 2,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,58; 2,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,65; 2,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,44; 1,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,47; 1,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,64; 2,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>1,44; 3,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>0,65; 1,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>0,72; 1,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,77; 1,83</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,24; 2,66</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,66; 1,48</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,73; 1,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,66; 1,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,78; 1,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,54; 1,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,79; 1,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,03; 1,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,95; 1,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,85; 1,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,86; 1,46</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>0,95; 1,51</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>1,0; 1,63</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>0,77; 1,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,65%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,87</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>0,0; 1,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0,08; 1,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>0,17; 1,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,88</t>
+          <t>0,77; 2,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,4</t>
+          <t>0,51; 2,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,12</t>
+          <t>0,44; 1,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0,19; 1,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,34</t>
+          <t>0,51; 1,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,14</t>
+          <t>0,4; 1,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,59</t>
+          <t>0,34; 1,13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>1,15%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,73</t>
+          <t>0,74; 2,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>0,77; 2,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,51; 2,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,37</t>
+          <t>0,4; 2,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,32</t>
+          <t>0,65; 2,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,24</t>
+          <t>0,69; 2,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,74</t>
+          <t>0,25; 1,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,06</t>
+          <t>0,68; 2,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,36</t>
+          <t>0,84; 2,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,82</t>
+          <t>0,86; 2,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,1</t>
+          <t>0,5; 1,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,35</t>
+          <t>0,65; 1,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>1,33%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,69%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,23%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,41%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,39%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,91%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>0,85%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,69</t>
+          <t>0,34; 1,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,69</t>
+          <t>0,31; 2,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,2</t>
+          <t>0,77; 3,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,36</t>
+          <t>0,25; 1,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,29</t>
+          <t>0,7; 2,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,32</t>
+          <t>0,87; 2,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,41</t>
+          <t>0,33; 1,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,1</t>
+          <t>0,38; 1,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,13</t>
+          <t>0,64; 1,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,09</t>
+          <t>0,74; 2,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,46</t>
+          <t>0,78; 2,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 1,89</t>
+          <t>0,49; 1,32</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,0%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,95</t>
+          <t>0,62; 2,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,08</t>
+          <t>0,58; 2,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,55</t>
+          <t>0,65; 2,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,59</t>
+          <t>0,43; 1,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,66</t>
+          <t>0,47; 1,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,97</t>
+          <t>0,64; 2,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,86</t>
+          <t>1,44; 3,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,0</t>
+          <t>0,63; 1,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,88</t>
+          <t>0,72; 1,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,05</t>
+          <t>0,77; 1,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,26</t>
+          <t>1,24; 2,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,45</t>
+          <t>0,66; 1,46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>1,22%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,91%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,27%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,39%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,1%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>1,2%</t>
-        </is>
-      </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,95%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,28</t>
+          <t>0,73; 1,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,13</t>
+          <t>0,66; 1,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,56</t>
+          <t>0,78; 1,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,67</t>
+          <t>0,5; 1,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,86</t>
+          <t>0,79; 1,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,19</t>
+          <t>1,03; 1,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,58</t>
+          <t>0,95; 1,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,72</t>
+          <t>0,78; 1,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,81</t>
+          <t>0,86; 1,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,83</t>
+          <t>0,95; 1,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,66</t>
+          <t>1,0; 1,63</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,48</t>
+          <t>0,73; 1,26</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,1%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,19%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,83%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1,13%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,44%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,34%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,26%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 1,61</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 1,46</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 1,73</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 1,24</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 1,57</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,03; 1,92</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 1,78</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 1,47</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 1,46</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 1,51</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,63</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 1,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P19C06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,47</t>
+          <t>0,0; 1,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,91</t>
+          <t>0,0; 1,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,12</t>
+          <t>0,09; 1,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,71</t>
+          <t>0,17; 1,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,89</t>
+          <t>0,7; 2,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,48</t>
+          <t>0,43; 2,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,65</t>
+          <t>0,43; 1,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,13</t>
+          <t>0,19; 1,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,75</t>
+          <t>0,5; 1,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,63</t>
+          <t>0,36; 1,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,13</t>
+          <t>0,34; 1,11</t>
         </is>
       </c>
     </row>
@@ -864,42 +865,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,69</t>
+          <t>0,75; 2,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,69</t>
+          <t>0,8; 2,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,2</t>
+          <t>0,55; 2,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,65</t>
+          <t>0,35; 2,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,29</t>
+          <t>0,66; 2,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,32</t>
+          <t>0,7; 2,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,41</t>
+          <t>0,24; 1,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,07</t>
+          <t>0,67; 2,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +910,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,09</t>
+          <t>0,96; 2,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,46</t>
+          <t>0,53; 1,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,96</t>
+          <t>0,61; 1,91</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,95</t>
+          <t>0,35; 1,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,08</t>
+          <t>0,3; 1,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,55</t>
+          <t>0,92; 3,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,55</t>
+          <t>0,27; 1,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,66</t>
+          <t>0,68; 2,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,97</t>
+          <t>0,92; 3,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,86</t>
+          <t>0,33; 1,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,82</t>
+          <t>0,37; 1,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,88</t>
+          <t>0,68; 2,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,05</t>
+          <t>0,75; 2,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,26</t>
+          <t>0,75; 2,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,32</t>
+          <t>0,44; 1,42</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,28</t>
+          <t>0,72; 2,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,13</t>
+          <t>0,55; 2,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,56</t>
+          <t>0,56; 2,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,7</t>
+          <t>0,44; 1,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,86</t>
+          <t>0,47; 1,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,19</t>
+          <t>0,67; 2,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,58</t>
+          <t>1,52; 3,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,67</t>
+          <t>0,62; 1,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,81</t>
+          <t>0,71; 1,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,83</t>
+          <t>0,77; 1,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,66</t>
+          <t>1,23; 2,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,46</t>
+          <t>0,67; 1,51</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,61</t>
+          <t>0,74; 1,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,46</t>
+          <t>0,69; 1,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,73</t>
+          <t>0,82; 1,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,36</t>
+          <t>0,5; 1,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,57</t>
+          <t>0,8; 1,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,92</t>
+          <t>1,06; 1,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,78</t>
+          <t>0,9; 1,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,41</t>
+          <t>0,76; 1,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,46</t>
+          <t>0,86; 1,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,51</t>
+          <t>0,95; 1,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,63</t>
+          <t>0,97; 1,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,26</t>
+          <t>0,72; 1,27</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1873</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2875</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2342</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3717</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10121</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6345</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5889</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5680</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11993</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9220</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8230</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7870</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6826</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9468</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>532; 7388</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>941; 9340</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4444; 18942</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2359; 14012</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2804; 10582</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1932; 11549</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6244; 20607</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3826; 18219</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4311; 13975</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10769</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12968</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9268</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12692</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10725</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11633</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6016</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11489</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>21493</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>24601</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15284</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>24181</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5409; 19298</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6916; 24356</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4465; 17015</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4038; 30090</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5339; 20042</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6256; 20610</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2105; 12065</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6325; 19152</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12884; 32535</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>16888; 38376</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8905; 25400</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12962; 40290</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4840</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5147</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10071</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8587</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11559</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4965</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8939</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13427</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16705</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15037</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13628</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1900; 10739</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1890; 11779</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5050; 20191</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1884; 10328</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3996; 15629</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6225; 20427</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1908; 11161</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3394; 15821</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7700; 22723</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9860; 27268</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8519; 25324</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7088; 22782</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9364</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9018</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9389</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8104</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7958</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11854</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20953</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>11457</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>17322</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>20872</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>30341</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>19560</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5093; 18038</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4418; 18024</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4314; 17362</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3955; 16174</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3823; 14560</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6206; 19671</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13298; 31852</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6612; 18326</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>10790; 26639</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>13371; 32282</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>20277; 43675</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>12987; 29461</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>26937</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>29005</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>31603</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>27826</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>30986</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>45167</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>38279</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>37773</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>57923</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>74172</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>69882</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>65599</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18164; 38256</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>20054; 43082</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>21809; 46014</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16831; 44629</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>21919; 43006</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>33303; 61523</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>25919; 52492</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27131; 50506</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>44581; 75159</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>57445; 91903</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>53556; 87748</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>49680; 87707</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>